--- a/manual/output_1190_chunk_2.xlsx
+++ b/manual/output_1190_chunk_2.xlsx
@@ -17083,7 +17083,7 @@
         <v>3</v>
       </c>
       <c r="D514">
-        <v>51.40900483360516</v>
+        <v>51.40900573576091</v>
       </c>
       <c r="E514" t="s">
         <v>2655</v>
@@ -17100,7 +17100,7 @@
         <v>1</v>
       </c>
       <c r="D515">
-        <v>1542.270145008155</v>
+        <v>1542.270172072827</v>
       </c>
       <c r="E515" t="s">
         <v>2654</v>
@@ -19327,7 +19327,7 @@
         <v>1</v>
       </c>
       <c r="D646">
-        <v>609.8138630605629</v>
+        <v>609.813810970543</v>
       </c>
       <c r="E646" t="s">
         <v>2654</v>
@@ -20228,7 +20228,7 @@
         <v>5</v>
       </c>
       <c r="D699">
-        <v>631</v>
+        <v>630.75</v>
       </c>
       <c r="E699" t="s">
         <v>2654</v>
@@ -24410,7 +24410,7 @@
         <v>5</v>
       </c>
       <c r="D945">
-        <v>525.5</v>
+        <v>525.25</v>
       </c>
       <c r="E945" t="s">
         <v>2654</v>
@@ -24478,7 +24478,7 @@
         <v>12</v>
       </c>
       <c r="D949">
-        <v>1037.25</v>
+        <v>1037</v>
       </c>
       <c r="E949" t="s">
         <v>2654</v>
@@ -29612,7 +29612,7 @@
         <v>3</v>
       </c>
       <c r="D1251">
-        <v>95.44329379459764</v>
+        <v>95.49961554503032</v>
       </c>
       <c r="E1251" t="s">
         <v>2655</v>
@@ -29629,7 +29629,7 @@
         <v>1</v>
       </c>
       <c r="D1252">
-        <v>2290.639051070343</v>
+        <v>2291.990773080728</v>
       </c>
       <c r="E1252" t="s">
         <v>2654</v>
@@ -29646,7 +29646,7 @@
         <v>3</v>
       </c>
       <c r="D1253">
-        <v>95.59202118946955</v>
+        <v>95.62413966757944</v>
       </c>
       <c r="E1253" t="s">
         <v>2655</v>
@@ -29663,7 +29663,7 @@
         <v>1</v>
       </c>
       <c r="D1254">
-        <v>2294.208508547269</v>
+        <v>2294.979352021906</v>
       </c>
       <c r="E1254" t="s">
         <v>2654</v>
@@ -29680,7 +29680,7 @@
         <v>3</v>
       </c>
       <c r="D1255">
-        <v>132.831531914122</v>
+        <v>132.825091913601</v>
       </c>
       <c r="E1255" t="s">
         <v>2655</v>
@@ -29697,7 +29697,7 @@
         <v>1</v>
       </c>
       <c r="D1256">
-        <v>3187.956765938928</v>
+        <v>3187.802205926423</v>
       </c>
       <c r="E1256" t="s">
         <v>2654</v>
@@ -29714,7 +29714,7 @@
         <v>3</v>
       </c>
       <c r="D1257">
-        <v>132.8468629356327</v>
+        <v>132.840614974672</v>
       </c>
       <c r="E1257" t="s">
         <v>2655</v>
@@ -29731,7 +29731,7 @@
         <v>1</v>
       </c>
       <c r="D1258">
-        <v>3188.324710455185</v>
+        <v>3188.174759392128</v>
       </c>
       <c r="E1258" t="s">
         <v>2654</v>
@@ -29748,7 +29748,7 @@
         <v>3</v>
       </c>
       <c r="D1259">
-        <v>97.25</v>
+        <v>98.25</v>
       </c>
       <c r="E1259" t="s">
         <v>2655</v>
@@ -29765,7 +29765,7 @@
         <v>1</v>
       </c>
       <c r="D1260">
-        <v>2334</v>
+        <v>2358</v>
       </c>
       <c r="E1260" t="s">
         <v>2654</v>
@@ -29850,7 +29850,7 @@
         <v>7</v>
       </c>
       <c r="D1265">
-        <v>213.5</v>
+        <v>213.75</v>
       </c>
       <c r="E1265" t="s">
         <v>2655</v>
@@ -29867,7 +29867,7 @@
         <v>1</v>
       </c>
       <c r="D1266">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="E1266" t="s">
         <v>2654</v>
@@ -33862,7 +33862,7 @@
         <v>332</v>
       </c>
       <c r="D1501">
-        <v>100.5</v>
+        <v>100.75</v>
       </c>
       <c r="E1501" t="s">
         <v>2655</v>
@@ -33879,7 +33879,7 @@
         <v>1</v>
       </c>
       <c r="D1502">
-        <v>1005</v>
+        <v>1007.5</v>
       </c>
       <c r="E1502" t="s">
         <v>2654</v>
@@ -40815,7 +40815,7 @@
         <v>7</v>
       </c>
       <c r="D1910">
-        <v>16.25</v>
+        <v>16.5</v>
       </c>
       <c r="E1910" t="s">
         <v>2655</v>
@@ -40832,7 +40832,7 @@
         <v>15</v>
       </c>
       <c r="D1911">
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="E1911" t="s">
         <v>2654</v>
@@ -40849,7 +40849,7 @@
         <v>16</v>
       </c>
       <c r="D1912">
-        <v>162.5</v>
+        <v>165</v>
       </c>
       <c r="E1912" t="s">
         <v>2654</v>
@@ -40866,7 +40866,7 @@
         <v>1</v>
       </c>
       <c r="D1913">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E1913" t="s">
         <v>2654</v>
@@ -41580,7 +41580,7 @@
         <v>7</v>
       </c>
       <c r="D1955">
-        <v>141.036227660471</v>
+        <v>141.0206872245968</v>
       </c>
       <c r="E1955" t="s">
         <v>2655</v>
@@ -41597,7 +41597,7 @@
         <v>1</v>
       </c>
       <c r="D1956">
-        <v>1410.36227660471</v>
+        <v>1410.206872245968</v>
       </c>
       <c r="E1956" t="s">
         <v>2654</v>
@@ -41648,7 +41648,7 @@
         <v>3</v>
       </c>
       <c r="D1959">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
       <c r="E1959" t="s">
         <v>2655</v>
@@ -41665,7 +41665,7 @@
         <v>1</v>
       </c>
       <c r="D1960">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="E1960" t="s">
         <v>2654</v>
@@ -41682,7 +41682,7 @@
         <v>3</v>
       </c>
       <c r="D1961">
-        <v>58.5</v>
+        <v>59.75</v>
       </c>
       <c r="E1961" t="s">
         <v>2655</v>
@@ -41699,7 +41699,7 @@
         <v>1</v>
       </c>
       <c r="D1962">
-        <v>1053</v>
+        <v>1075.5</v>
       </c>
       <c r="E1962" t="s">
         <v>2654</v>
@@ -42277,7 +42277,7 @@
         <v>7</v>
       </c>
       <c r="D1996">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="E1996" t="s">
         <v>2655</v>
@@ -42294,7 +42294,7 @@
         <v>15</v>
       </c>
       <c r="D1997">
-        <v>51.25</v>
+        <v>52.5</v>
       </c>
       <c r="E1997" t="s">
         <v>2654</v>
@@ -42311,7 +42311,7 @@
         <v>16</v>
       </c>
       <c r="D1998">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="E1998" t="s">
         <v>2654</v>
@@ -42328,7 +42328,7 @@
         <v>1</v>
       </c>
       <c r="D1999">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E1999" t="s">
         <v>2654</v>
@@ -44096,7 +44096,7 @@
         <v>3</v>
       </c>
       <c r="D2103">
-        <v>43.75</v>
+        <v>43.5</v>
       </c>
       <c r="E2103" t="s">
         <v>2655</v>
@@ -44113,7 +44113,7 @@
         <v>1</v>
       </c>
       <c r="D2104">
-        <v>262.5</v>
+        <v>261</v>
       </c>
       <c r="E2104" t="s">
         <v>2654</v>
@@ -44759,7 +44759,7 @@
         <v>7</v>
       </c>
       <c r="D2142">
-        <v>17.75</v>
+        <v>18</v>
       </c>
       <c r="E2142" t="s">
         <v>2655</v>
@@ -44776,7 +44776,7 @@
         <v>15</v>
       </c>
       <c r="D2143">
-        <v>88.75</v>
+        <v>90</v>
       </c>
       <c r="E2143" t="s">
         <v>2654</v>
@@ -44793,7 +44793,7 @@
         <v>16</v>
       </c>
       <c r="D2144">
-        <v>177.5</v>
+        <v>180</v>
       </c>
       <c r="E2144" t="s">
         <v>2654</v>
@@ -44810,7 +44810,7 @@
         <v>1</v>
       </c>
       <c r="D2145">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E2145" t="s">
         <v>2654</v>
@@ -45473,7 +45473,7 @@
         <v>10</v>
       </c>
       <c r="D2184">
-        <v>38.5</v>
+        <v>38.75</v>
       </c>
       <c r="E2184" t="s">
         <v>2655</v>
@@ -45490,7 +45490,7 @@
         <v>1</v>
       </c>
       <c r="D2185">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="E2185" t="s">
         <v>2654</v>
@@ -48125,7 +48125,7 @@
         <v>12</v>
       </c>
       <c r="D2340">
-        <v>867.5</v>
+        <v>868.5</v>
       </c>
       <c r="E2340" t="s">
         <v>2654</v>
@@ -53242,7 +53242,7 @@
         <v>1</v>
       </c>
       <c r="D2641">
-        <v>233.75</v>
+        <v>233.5</v>
       </c>
       <c r="E2641" t="s">
         <v>2654</v>
@@ -58138,7 +58138,7 @@
         <v>25</v>
       </c>
       <c r="D2929">
-        <v>437.25</v>
+        <v>439</v>
       </c>
       <c r="E2929" t="s">
         <v>2655</v>
@@ -58155,7 +58155,7 @@
         <v>1</v>
       </c>
       <c r="D2930">
-        <v>874.5</v>
+        <v>878</v>
       </c>
       <c r="E2930" t="s">
         <v>2654</v>
@@ -59634,7 +59634,7 @@
         <v>332</v>
       </c>
       <c r="D3017">
-        <v>19.75</v>
+        <v>28.5</v>
       </c>
       <c r="E3017" t="s">
         <v>2655</v>
@@ -59651,7 +59651,7 @@
         <v>1</v>
       </c>
       <c r="D3018">
-        <v>790</v>
+        <v>1140</v>
       </c>
       <c r="E3018" t="s">
         <v>2654</v>
@@ -63884,7 +63884,7 @@
         <v>23</v>
       </c>
       <c r="D3267">
-        <v>50.4574044202189</v>
+        <v>50.45740442021891</v>
       </c>
       <c r="E3267" t="s">
         <v>2655</v>
@@ -70378,7 +70378,7 @@
         <v>3</v>
       </c>
       <c r="D3649">
-        <v>214.4658426272786</v>
+        <v>214.6714164597194</v>
       </c>
       <c r="E3649" t="s">
         <v>2655</v>
@@ -70395,7 +70395,7 @@
         <v>1</v>
       </c>
       <c r="D3650">
-        <v>2573.590111527344</v>
+        <v>2576.056997516633</v>
       </c>
       <c r="E3650" t="s">
         <v>2654</v>
@@ -71602,7 +71602,7 @@
         <v>3</v>
       </c>
       <c r="D3721">
-        <v>95.95698616372954</v>
+        <v>95.95040724558658</v>
       </c>
       <c r="E3721" t="s">
         <v>2655</v>
@@ -71619,7 +71619,7 @@
         <v>2</v>
       </c>
       <c r="D3722">
-        <v>287.8709584911886</v>
+        <v>287.8512217367597</v>
       </c>
       <c r="E3722" t="s">
         <v>2654</v>
@@ -71704,7 +71704,7 @@
         <v>3</v>
       </c>
       <c r="D3727">
-        <v>76.20971118017316</v>
+        <v>76.20814032433964</v>
       </c>
       <c r="E3727" t="s">
         <v>2655</v>
@@ -71721,7 +71721,7 @@
         <v>2</v>
       </c>
       <c r="D3728">
-        <v>228.6291335405195</v>
+        <v>228.6244209730189</v>
       </c>
       <c r="E3728" t="s">
         <v>2654</v>
@@ -76226,7 +76226,7 @@
         <v>2</v>
       </c>
       <c r="D3993">
-        <v>258.9481847800996</v>
+        <v>258.9481847801151</v>
       </c>
       <c r="E3993" t="s">
         <v>2654</v>
